--- a/BER_vs_SNR_results.xlsx
+++ b/BER_vs_SNR_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,756 +482,727 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>10000</v>
+        <v>1.584893192461114</v>
       </c>
       <c r="C2" t="n">
-        <v>1e-12</v>
+        <v>0.4682282</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001</v>
+        <v>1.584893192461114e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>1e-08</v>
+        <v>5.111218783705968e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>1.258925411794167</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005005539999999994</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5005540003852657</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5005540003852657</v>
+        <v>5.111218783705968e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>10000</v>
+        <v>2.51188643150958</v>
       </c>
       <c r="C3" t="n">
-        <v>1e-12</v>
+        <v>0.4497183</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001</v>
+        <v>2.51188643150958e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>1e-08</v>
+        <v>-6.836105026886335e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>1.584893192461114</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005004120000000001</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5004120685363059</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5004120685363059</v>
+        <v>-6.836105026886335e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>10000</v>
+        <v>3.981071705534972</v>
       </c>
       <c r="C4" t="n">
-        <v>1e-12</v>
+        <v>0.4211618</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001</v>
+        <v>3.981071705534972e-09</v>
       </c>
       <c r="E4" t="n">
-        <v>1e-08</v>
+        <v>-0.0001454024107995446</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>1.99526231496888</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00499995</v>
+        <v>6.309573444801932e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4999951252828009</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4999951252828009</v>
+        <v>-8.230667635152525e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>10000</v>
+        <v>6.309573444801933</v>
       </c>
       <c r="C5" t="n">
-        <v>1e-12</v>
+        <v>0.3772518</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001</v>
+        <v>6.309573444801934e-09</v>
       </c>
       <c r="E5" t="n">
-        <v>1e-08</v>
+        <v>8.132055746535686e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>2.51188643150958</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004987490000000004</v>
+        <v>7.943282347242815e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4987487892557899</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4987487892557899</v>
+        <v>0.000160753380937785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>1e-12</v>
+        <v>0.3159132</v>
       </c>
       <c r="D6" t="n">
+        <v>1e-08</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.823632675377514e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.16227766016838</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0001</v>
       </c>
-      <c r="E6" t="n">
-        <v>1e-08</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.004997509999999999</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.4997510799651499</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4997510799651499</v>
+        <v>8.176367324622488e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>10000</v>
+        <v>15.84893192461113</v>
       </c>
       <c r="C7" t="n">
-        <v>1e-12</v>
+        <v>0.2443644</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001</v>
+        <v>1.584893192461113e-08</v>
       </c>
       <c r="E7" t="n">
-        <v>1e-08</v>
+        <v>8.291577636111719e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>3.981071705534972</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004999910000000003</v>
+        <v>0.0001258925411794167</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4999911067801751</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4999911067801751</v>
+        <v>0.0002088083175405339</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10000</v>
+        <v>25.1188643150958</v>
       </c>
       <c r="C8" t="n">
-        <v>1e-12</v>
+        <v>0.1920781</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001</v>
+        <v>2.51188643150958e-08</v>
       </c>
       <c r="E8" t="n">
-        <v>1e-08</v>
+        <v>4.578555540349916e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>5.011872336272722</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005000210000000001</v>
+        <v>0.0001584893192461113</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5000210085987572</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5000210085987572</v>
+        <v>0.0002042748746496105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>10000</v>
+        <v>39.81071705534973</v>
       </c>
       <c r="C9" t="n">
-        <v>1e-12</v>
+        <v>0.168729</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001</v>
+        <v>3.981071705534974e-08</v>
       </c>
       <c r="E9" t="n">
-        <v>1e-08</v>
+        <v>-5.002968846447403e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>6.309573444801933</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004992010000000001</v>
+        <v>0.000199526231496888</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4992008388400987</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4992008388400987</v>
+        <v>0.000149496543032414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>10000</v>
+        <v>63.09573444801933</v>
       </c>
       <c r="C10" t="n">
-        <v>1e-12</v>
+        <v>0.1491745</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001</v>
+        <v>6.309573444801934e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>1e-08</v>
+        <v>7.902588877723079e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>7.943282347242815</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005005410000000002</v>
+        <v>0.000251188643150958</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5005409504596449</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5005409504596449</v>
+        <v>0.0003302145319281888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1e-12</v>
+        <v>0.1263112</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001</v>
+        <v>1e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>1e-08</v>
+        <v>3.930678573277366e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004993780000000001</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4993778431156338</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4993778431156338</v>
+        <v>3.930678573277366e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>10000</v>
+        <v>158.4893192461114</v>
       </c>
       <c r="C12" t="n">
-        <v>1e-12</v>
+        <v>0.1004874</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001</v>
+        <v>1.584893192461114e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>1e-08</v>
+        <v>2.180388398801189e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>12.58925411794167</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004999</v>
+        <v>0.0003981071705534974</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4998997028884239</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4998997028884239</v>
+        <v>0.0004199110545415092</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>10000</v>
+        <v>251.188643150958</v>
       </c>
       <c r="C13" t="n">
-        <v>1e-12</v>
+        <v>0.07266060000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001</v>
+        <v>2.51188643150958e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>1e-08</v>
+        <v>-1.154043927126344e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>15.84893192461113</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004998590000000001</v>
+        <v>0.0005011872336272722</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4998589505454213</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4998589505454213</v>
+        <v>0.0004896467943560088</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>10000</v>
+        <v>398.1071705534973</v>
       </c>
       <c r="C14" t="n">
-        <v>1e-12</v>
+        <v>0.0459197</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0001</v>
+        <v>3.981071705534973e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>1e-08</v>
+        <v>1.650757666726083e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>19.9526231496888</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004992989999999998</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4992989525823613</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4992989525823613</v>
+        <v>1.650757666726083e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
-        <v>10000</v>
+        <v>630.957344480193</v>
       </c>
       <c r="C15" t="n">
-        <v>1e-12</v>
+        <v>0.02358</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001</v>
+        <v>6.309573444801931e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>1e-08</v>
+        <v>-7.927585512056996e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>25.1188643150958</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004998259999999999</v>
+        <v>0.0007943282347242813</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4998259809186478</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4998259809186478</v>
+        <v>0.0007864006492122243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C16" t="n">
-        <v>1e-12</v>
+        <v>0.008775099999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001</v>
+        <v>1e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>1e-08</v>
+        <v>-9.023883000283267e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>31.62277660168379</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004994880000000002</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4994880349252155</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4994880349252155</v>
+        <v>-9.023883000283267e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="n">
-        <v>10000</v>
+        <v>1584.893192461114</v>
       </c>
       <c r="C17" t="n">
-        <v>1e-12</v>
+        <v>0.0019865</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0001</v>
+        <v>1.584893192461114e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>1e-08</v>
+        <v>-1.083365429966708e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>39.81071705534973</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005005399999999999</v>
+        <v>0.001258925411794167</v>
       </c>
       <c r="H17" t="n">
-        <v>0.500540126791477</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.500540126791477</v>
+        <v>0.001248091757494501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
-        <v>10000</v>
+        <v>2511.88643150958</v>
       </c>
       <c r="C18" t="n">
-        <v>1e-12</v>
+        <v>0.0002131</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001</v>
+        <v>2.51188643150958e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>1e-08</v>
+        <v>1.248880237967924e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>50.11872336272722</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004995830000000001</v>
+        <v>0.001584893192461113</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4995828690491038</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4995828690491038</v>
+        <v>0.001597381994840793</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
-        <v>10000</v>
+        <v>3981.071705534973</v>
       </c>
       <c r="C19" t="n">
-        <v>1e-12</v>
+        <v>6.4e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001</v>
+        <v>3.981071705534973e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>1e-08</v>
+        <v>6.578478873355835e-08</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>63.09573444801933</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004995620000000003</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4995620911693572</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4995620911693572</v>
+        <v>6.578478873355835e-08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>10000</v>
+        <v>6309.57344480193</v>
       </c>
       <c r="C20" t="n">
-        <v>1e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001</v>
+        <v>6.30957344480193e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>1e-08</v>
+        <v>1.832662169039339e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>79.43282347242814</v>
       </c>
       <c r="G20" t="n">
-        <v>0.005004169999999998</v>
+        <v>0.00251188643150958</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5004170191145627</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5004170191145627</v>
+        <v>0.002513719093678619</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="n">
         <v>10000</v>
       </c>
       <c r="C21" t="n">
-        <v>1e-12</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001</v>
+        <v>1e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>1e-08</v>
+        <v>-6.829436376816195e-06</v>
       </c>
       <c r="F21" t="n">
         <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00500008</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5000079464919591</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5000079464919591</v>
+        <v>-6.829436376816195e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" t="n">
-        <v>10000</v>
+        <v>15848.93192461114</v>
       </c>
       <c r="C22" t="n">
-        <v>1e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0001</v>
+        <v>1.584893192461114e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>1e-08</v>
+        <v>-7.148725632516104e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>125.8925411794167</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005001009999999998</v>
+        <v>0.003981071705534973</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5001011157358556</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5001011157358556</v>
+        <v>0.003973922979902457</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" t="n">
-        <v>10000</v>
+        <v>25118.86431509582</v>
       </c>
       <c r="C23" t="n">
-        <v>1e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001</v>
+        <v>2.511886431509583e-05</v>
       </c>
       <c r="E23" t="n">
-        <v>1e-08</v>
+        <v>1.358814558635623e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>158.4893192461114</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004999340000000002</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4999339804183272</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4999339804183272</v>
+        <v>1.358814558635623e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>10000</v>
+        <v>39810.71705534969</v>
       </c>
       <c r="C24" t="n">
-        <v>1e-12</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001</v>
+        <v>3.981071705534969e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>1e-08</v>
+        <v>3.124759913613559e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>199.5262314968879</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004991549999999999</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4991549461245923</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4991549461245923</v>
+        <v>3.124759913613559e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>10000</v>
+        <v>63095.7344480193</v>
       </c>
       <c r="C25" t="n">
-        <v>1e-12</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001</v>
+        <v>6.309573444801931e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>1e-08</v>
+        <v>5.789474650245835e-07</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>251.188643150958</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004994900000000002</v>
+        <v>0.007943282347242814</v>
       </c>
       <c r="H25" t="n">
-        <v>0.499490140328972</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I25" t="n">
-        <v>0.499490140328972</v>
+        <v>0.007943861294707838</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C26" t="n">
-        <v>1e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0.0001</v>
       </c>
       <c r="E26" t="n">
-        <v>1e-08</v>
+        <v>1.622948215839921e-07</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>316.227766016838</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004998450000000002</v>
+        <v>0.01</v>
       </c>
       <c r="H26" t="n">
-        <v>0.499845081149222</v>
+        <v>2.10818510677892e-05</v>
       </c>
       <c r="I26" t="n">
-        <v>0.499845081149222</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>50</v>
-      </c>
-      <c r="B27" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1e-12</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1e-08</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.005004840000000003</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.5004839534415765</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.5004839534415765</v>
+        <v>0.01000016229482159</v>
       </c>
     </row>
   </sheetData>
